--- a/Energy Consumption14.xlsx
+++ b/Energy Consumption14.xlsx
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9.410836161342861</v>
+        <v>5.932973893954316</v>
       </c>
       <c r="C2" t="n">
-        <v>1.028466056724986</v>
+        <v>0.961207604203494</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>12.44687940714748</v>
+        <v>7.779106602769795</v>
       </c>
       <c r="C3" t="n">
-        <v>2.083329643153476</v>
+        <v>1.955149265625621</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>13.03751793616148</v>
+        <v>7.881736270493076</v>
       </c>
       <c r="C4" t="n">
-        <v>3.270733485311276</v>
+        <v>2.920311774085846</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20.83806126803269</v>
+        <v>9.67590026424873</v>
       </c>
       <c r="C5" t="n">
-        <v>4.355086528868341</v>
+        <v>3.994994470866022</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>21.06759750583682</v>
+        <v>10.00811450275159</v>
       </c>
       <c r="C6" t="n">
-        <v>5.699747448443302</v>
+        <v>4.915329023383506</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>22.2840723530713</v>
+        <v>13.51378437125369</v>
       </c>
       <c r="C7" t="n">
-        <v>6.782421096273838</v>
+        <v>5.923315215655793</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>23.06073134291061</v>
+        <v>13.86426881620123</v>
       </c>
       <c r="C8" t="n">
-        <v>8.179051823121613</v>
+        <v>6.946836543562831</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>33.58301656162125</v>
+        <v>13.97763092416994</v>
       </c>
       <c r="C9" t="n">
-        <v>9.496990997714663</v>
+        <v>8.092941512154862</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>33.69948109672552</v>
+        <v>15.59994292945312</v>
       </c>
       <c r="C10" t="n">
-        <v>10.60610170481309</v>
+        <v>9.122247995304985</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>36.09006256232647</v>
+        <v>20.20014035628244</v>
       </c>
       <c r="C11" t="n">
-        <v>11.63551370382831</v>
+        <v>10.03181388359072</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>36.47985821028983</v>
+        <v>26.62373511794407</v>
       </c>
       <c r="C12" t="n">
-        <v>12.75037856757978</v>
+        <v>11.085980192986</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>36.5826895796513</v>
+        <v>26.7302813039137</v>
       </c>
       <c r="C13" t="n">
-        <v>13.78984659176372</v>
+        <v>12.05270083524689</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>37.80072703275377</v>
+        <v>28.94689378304313</v>
       </c>
       <c r="C14" t="n">
-        <v>14.6773926120793</v>
+        <v>13.13935808807155</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>38.13411798582734</v>
+        <v>30.05604583924475</v>
       </c>
       <c r="C15" t="n">
-        <v>16.04937342868192</v>
+        <v>14.14447798073546</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>38.27278820881332</v>
+        <v>32.95984153634193</v>
       </c>
       <c r="C16" t="n">
-        <v>17.47521953637257</v>
+        <v>15.31558193380363</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>39.69027174384866</v>
+        <v>33.04508579616338</v>
       </c>
       <c r="C17" t="n">
-        <v>18.82253363892512</v>
+        <v>16.37624952163415</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>40.11789189104417</v>
+        <v>37.16484710338659</v>
       </c>
       <c r="C18" t="n">
-        <v>19.76221064756716</v>
+        <v>17.24563971161286</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>45.3343911946388</v>
+        <v>40.07063489588804</v>
       </c>
       <c r="C19" t="n">
-        <v>20.94300659303557</v>
+        <v>18.14796185013507</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>45.36620861185411</v>
+        <v>45.94020946422788</v>
       </c>
       <c r="C20" t="n">
-        <v>21.91167864658334</v>
+        <v>19.16636747227267</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>46.97666135295011</v>
+        <v>46.31566396750427</v>
       </c>
       <c r="C21" t="n">
-        <v>23.03265104364029</v>
+        <v>19.99934593535788</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>51.30627431726452</v>
+        <v>46.42153867357229</v>
       </c>
       <c r="C22" t="n">
-        <v>23.98644351034477</v>
+        <v>20.91179197539447</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>51.68456344050783</v>
+        <v>47.49663147869106</v>
       </c>
       <c r="C23" t="n">
-        <v>25.12510666142769</v>
+        <v>22.06026636091381</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>51.79043124744936</v>
+        <v>48.92285456124578</v>
       </c>
       <c r="C24" t="n">
-        <v>26.17853834029598</v>
+        <v>23.0350528846401</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>53.02171660069833</v>
+        <v>48.99620907526921</v>
       </c>
       <c r="C25" t="n">
-        <v>27.18221765662497</v>
+        <v>24.04518828138722</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>54.98801161142271</v>
+        <v>57.5856174576015</v>
       </c>
       <c r="C26" t="n">
-        <v>28.4329749201884</v>
+        <v>24.99620295629721</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>55.9788105219906</v>
+        <v>59.3099960670133</v>
       </c>
       <c r="C27" t="n">
-        <v>29.45153276341831</v>
+        <v>25.88764842958193</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>60.35814900080355</v>
+        <v>64.66210778980349</v>
       </c>
       <c r="C28" t="n">
-        <v>30.43306418850379</v>
+        <v>27.04898275843909</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>60.41919251948827</v>
+        <v>65.74618590916008</v>
       </c>
       <c r="C29" t="n">
-        <v>31.31488016504771</v>
+        <v>28.0776332481181</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>60.8594115252696</v>
+        <v>65.85525830080093</v>
       </c>
       <c r="C30" t="n">
-        <v>32.70512695790512</v>
+        <v>29.06811960884085</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>67.35564742353668</v>
+        <v>75.42241765154037</v>
       </c>
       <c r="C31" t="n">
-        <v>33.79309237745208</v>
+        <v>30.44164467381796</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>67.69813660306339</v>
+        <v>85.17121900240853</v>
       </c>
       <c r="C32" t="n">
-        <v>34.99869519825415</v>
+        <v>31.35633055489902</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>68.87274762480047</v>
+        <v>85.26010245231338</v>
       </c>
       <c r="C33" t="n">
-        <v>35.95514484572819</v>
+        <v>32.3494992848691</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>73.52867776989085</v>
+        <v>85.67105127041361</v>
       </c>
       <c r="C34" t="n">
-        <v>37.09209946354778</v>
+        <v>33.44517325526552</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>75.50059353809647</v>
+        <v>85.83017344606603</v>
       </c>
       <c r="C35" t="n">
-        <v>38.08490450310571</v>
+        <v>34.4100099103817</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>78.48591186594147</v>
+        <v>85.9276477171512</v>
       </c>
       <c r="C36" t="n">
-        <v>39.09286627737863</v>
+        <v>35.52698656230781</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>79.58622544738121</v>
+        <v>88.03542851944876</v>
       </c>
       <c r="C37" t="n">
-        <v>40.38324765891121</v>
+        <v>36.51073214542434</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>80.10607809547818</v>
+        <v>88.27062691313884</v>
       </c>
       <c r="C38" t="n">
-        <v>41.71902483374024</v>
+        <v>37.37786519023793</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>80.27944311112347</v>
+        <v>88.40607446086001</v>
       </c>
       <c r="C39" t="n">
-        <v>42.76814847335899</v>
+        <v>38.3126867656464</v>
       </c>
     </row>
     <row r="40">
@@ -868,10 +868,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>85.3110946071825</v>
+        <v>91.04105711397838</v>
       </c>
       <c r="C40" t="n">
-        <v>44.05108380260435</v>
+        <v>39.20197534003198</v>
       </c>
     </row>
     <row r="41">
@@ -879,10 +879,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>87.87012138473352</v>
+        <v>94.2066718036514</v>
       </c>
       <c r="C41" t="n">
-        <v>45.13974622173036</v>
+        <v>40.16468375147701</v>
       </c>
     </row>
     <row r="42">
@@ -890,10 +890,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>87.92489475676456</v>
+        <v>94.60060571073761</v>
       </c>
       <c r="C42" t="n">
-        <v>46.17460314129222</v>
+        <v>41.24733446942621</v>
       </c>
     </row>
     <row r="43">
@@ -901,10 +901,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>87.99287690001751</v>
+        <v>94.69663721535323</v>
       </c>
       <c r="C43" t="n">
-        <v>47.35841937421491</v>
+        <v>42.190855328508</v>
       </c>
     </row>
     <row r="44">
@@ -912,10 +912,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>88.07730874046993</v>
+        <v>97.89551198538281</v>
       </c>
       <c r="C44" t="n">
-        <v>48.40608168489176</v>
+        <v>43.43228387582847</v>
       </c>
     </row>
     <row r="45">
@@ -923,10 +923,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>89.944816182154</v>
+        <v>98.61999805702384</v>
       </c>
       <c r="C45" t="n">
-        <v>49.55634577983427</v>
+        <v>44.6432642279588</v>
       </c>
     </row>
     <row r="46">
@@ -934,10 +934,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>90.14191046970107</v>
+        <v>98.69642961613013</v>
       </c>
       <c r="C46" t="n">
-        <v>50.55448031926964</v>
+        <v>45.61840301190725</v>
       </c>
     </row>
   </sheetData>
